--- a/outputs-HGR-r202-archive/g__CAG-177_train.xlsx
+++ b/outputs-HGR-r202-archive/g__CAG-177_train.xlsx
@@ -503,7 +503,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -666,20 +666,20 @@
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS203_11.fasta</t>
+          <t>label_UMGS203_15.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6534788724552598</v>
+        <v>0.8546552747693036</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1533737920719096</v>
+        <v>2.219998223424854e-14</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1931473354728306</v>
+        <v>0.1453447252306743</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6534788724552598</v>
+        <v>0.8546552747693036</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -690,20 +690,20 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS203_18.fasta</t>
+          <t>label_UMGS203_21.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5741850704044419</v>
+        <v>0.7653451205818171</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1225506616935235</v>
+        <v>2.220130999169386e-14</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3032642679020346</v>
+        <v>0.2346548794181607</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5741850704044419</v>
+        <v>0.7653451205818171</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -714,20 +714,20 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS203_9.fasta</t>
+          <t>label_UMGS203_3.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8234379624951516</v>
+        <v>0.8879665978059506</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1327332275194518</v>
+        <v>2.219952530497374e-14</v>
       </c>
       <c r="D9" t="n">
-        <v>0.04382880998539671</v>
+        <v>0.1120334021940272</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8234379624951516</v>
+        <v>0.8879665978059506</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -738,20 +738,20 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS203_15.fasta</t>
+          <t>label_UMGS203_5.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8546552747693036</v>
+        <v>0.9079943665173732</v>
       </c>
       <c r="C10" t="n">
-        <v>2.219998223424854e-14</v>
+        <v>2.219961323474651e-14</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1453447252306743</v>
+        <v>0.09200563348260474</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8546552747693036</v>
+        <v>0.9079943665173732</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -762,20 +762,20 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS203_21.fasta</t>
+          <t>label_UMGS203_0.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7653451205818171</v>
+        <v>0.8389996016181702</v>
       </c>
       <c r="C11" t="n">
-        <v>2.220130999169386e-14</v>
+        <v>0.1085605792957058</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2346548794181607</v>
+        <v>0.05243981908612389</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7653451205818171</v>
+        <v>0.8389996016181702</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -786,20 +786,20 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS203_3.fasta</t>
+          <t>label_UMGS203_10.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8879665978059506</v>
+        <v>0.8482213878687856</v>
       </c>
       <c r="C12" t="n">
-        <v>2.219952530497374e-14</v>
+        <v>0.1153881432437928</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1120334021940272</v>
+        <v>0.03639046888742156</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8879665978059506</v>
+        <v>0.8482213878687856</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -810,44 +810,44 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS203_5.fasta</t>
+          <t>label_UMGS203_22.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9079943665173732</v>
+        <v>0.04134180097100016</v>
       </c>
       <c r="C13" t="n">
-        <v>2.219961323474651e-14</v>
+        <v>0.08362214129036627</v>
       </c>
       <c r="D13" t="n">
-        <v>0.09200563348260474</v>
+        <v>0.8750360577386336</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9079943665173732</v>
+        <v>0.8750360577386336</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>s__CAG-177 sp000431775</t>
+          <t>s__CAG-177 sp003538135</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS203_0.fasta</t>
+          <t>label_UMGS203_4.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8389996016181702</v>
+        <v>0.8614122208057725</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1085605792957058</v>
+        <v>0.1151001687413033</v>
       </c>
       <c r="D14" t="n">
-        <v>0.05243981908612389</v>
+        <v>0.02348761045292417</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8389996016181702</v>
+        <v>0.8614122208057725</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -858,20 +858,20 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS203_10.fasta</t>
+          <t>label_UMGS203_6.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8482213878687856</v>
+        <v>0.8498795089288009</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1153881432437928</v>
+        <v>0.1101409066690729</v>
       </c>
       <c r="D15" t="n">
-        <v>0.03639046888742156</v>
+        <v>0.03997958440212612</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8482213878687856</v>
+        <v>0.8498795089288009</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -882,44 +882,44 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS203_22.fasta</t>
+          <t>label_UMGS203_8.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.04134180097100016</v>
+        <v>0.8154463947149078</v>
       </c>
       <c r="C16" t="n">
-        <v>0.08362214129036627</v>
+        <v>0.1041830024258943</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8750360577386336</v>
+        <v>0.08037060285919798</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8750360577386336</v>
+        <v>0.8154463947149078</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>s__CAG-177 sp003538135</t>
+          <t>s__CAG-177 sp000431775</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS203_4.fasta</t>
+          <t>label_UMGS203_13.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.8614122208057725</v>
+        <v>0.8585470727335626</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1151001687413033</v>
+        <v>0.1222843927511953</v>
       </c>
       <c r="D17" t="n">
-        <v>0.02348761045292417</v>
+        <v>0.01916853451524206</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8614122208057725</v>
+        <v>0.8585470727335626</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -930,20 +930,20 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS203_6.fasta</t>
+          <t>label_UMGS203_16.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8498795089288009</v>
+        <v>0.7809585740499372</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1101409066690729</v>
+        <v>0.1194188143470017</v>
       </c>
       <c r="D18" t="n">
-        <v>0.03997958440212612</v>
+        <v>0.09962261160306109</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8498795089288009</v>
+        <v>0.7809585740499372</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -954,20 +954,20 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS203_8.fasta</t>
+          <t>label_UMGS203_17.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.8154463947149078</v>
+        <v>0.8262036998847666</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1041830024258943</v>
+        <v>0.1267426002335059</v>
       </c>
       <c r="D19" t="n">
-        <v>0.08037060285919798</v>
+        <v>0.04705369988172743</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8154463947149078</v>
+        <v>0.8262036998847666</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -978,20 +978,20 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS203_13.fasta</t>
+          <t>label_UMGS203_20.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.8585470727335626</v>
+        <v>0.5397297963670069</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1222843927511953</v>
+        <v>0.2820710282787068</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01916853451524206</v>
+        <v>0.1781991753542863</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8585470727335626</v>
+        <v>0.5397297963670069</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1002,20 +1002,20 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS203_16.fasta</t>
+          <t>label_UMGS203_7.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.7809585740499372</v>
+        <v>0.869376049542198</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1194188143470017</v>
+        <v>0.1162407416464811</v>
       </c>
       <c r="D21" t="n">
-        <v>0.09962261160306109</v>
+        <v>0.01438320881132093</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7809585740499372</v>
+        <v>0.869376049542198</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1026,20 +1026,20 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS203_17.fasta</t>
+          <t>label_UMGS203_1.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.8262036998847666</v>
+        <v>0.8425603489856592</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1267426002335059</v>
+        <v>0.1093856862785435</v>
       </c>
       <c r="D22" t="n">
-        <v>0.04705369988172743</v>
+        <v>0.04805396473579732</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8262036998847666</v>
+        <v>0.8425603489856592</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1050,20 +1050,20 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS203_20.fasta</t>
+          <t>label_UMGS203_12.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.5397297963670069</v>
+        <v>0.7781036267215535</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2820710282787068</v>
+        <v>0.1665802633215913</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1781991753542863</v>
+        <v>0.05531610995685506</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5397297963670069</v>
+        <v>0.7781036267215535</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1074,20 +1074,20 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS203_7.fasta</t>
+          <t>label_UMGS203_14.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.869376049542198</v>
+        <v>0.7663745272025582</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1162407416464811</v>
+        <v>0.1694714252964425</v>
       </c>
       <c r="D24" t="n">
-        <v>0.01438320881132093</v>
+        <v>0.06415404750099933</v>
       </c>
       <c r="E24" t="n">
-        <v>0.869376049542198</v>
+        <v>0.7663745272025582</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1098,20 +1098,20 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS203_1.fasta</t>
+          <t>label_UMGS203_19.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.8425603489856592</v>
+        <v>0.7503039550675412</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1093856862785435</v>
+        <v>0.1927566354344063</v>
       </c>
       <c r="D25" t="n">
-        <v>0.04805396473579732</v>
+        <v>0.05693940949805237</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8425603489856592</v>
+        <v>0.7503039550675412</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1122,94 +1122,22 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS203_12.fasta</t>
+          <t>label_UMGS203_2.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.7781036267215535</v>
+        <v>0.8174935284121086</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1665802633215913</v>
+        <v>0.1052783474222472</v>
       </c>
       <c r="D26" t="n">
-        <v>0.05531610995685506</v>
+        <v>0.07722812416564408</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7781036267215535</v>
+        <v>0.8174935284121086</v>
       </c>
       <c r="F26" t="inlineStr">
-        <is>
-          <t>s__CAG-177 sp000431775</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS203_14.fasta</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0.7663745272025582</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.1694714252964425</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.06415404750099933</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.7663745272025582</v>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>s__CAG-177 sp000431775</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS203_19.fasta</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>0.7503039550675412</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.1927566354344063</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.05693940949805237</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.7503039550675412</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>s__CAG-177 sp000431775</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS203_2.fasta</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>0.8174935284121086</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.1052783474222472</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.07722812416564408</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.8174935284121086</v>
-      </c>
-      <c r="F29" t="inlineStr">
         <is>
           <t>s__CAG-177 sp000431775</t>
         </is>
@@ -1226,7 +1154,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1317,212 +1245,212 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS185_2.fasta</t>
+          <t>label_UMGS185_10.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1073241816461126</v>
+        <v>0.3802807541269362</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4865449938132</v>
+        <v>7.565460577918226e-12</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4061308245406873</v>
+        <v>0.6197192458654983</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4865449938132</v>
+        <v>0.6197192458654983</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>s__CAG-177 sp003514385</t>
+          <t>s__CAG-177 sp003538135</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS185_8.fasta</t>
+          <t>label_UMGS185_12.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1056782024554337</v>
+        <v>0.3479939594099813</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4873004836900797</v>
+        <v>2.220324060866619e-14</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4070213138544866</v>
+        <v>0.6520060405899964</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4873004836900797</v>
+        <v>0.6520060405899964</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>s__CAG-177 sp003514385</t>
+          <t>s__CAG-177 sp003538135</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS185_10.fasta</t>
+          <t>label_UMGS185_13.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3802807541269362</v>
+        <v>0.5185183999089611</v>
       </c>
       <c r="C6" t="n">
-        <v>7.565460577918226e-12</v>
+        <v>3.093311124468663e-10</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6197192458654983</v>
+        <v>0.481481599781708</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6197192458654983</v>
+        <v>0.5185183999089611</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>s__CAG-177 sp003538135</t>
+          <t>s__CAG-177 sp000431775</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS185_12.fasta</t>
+          <t>label_UMGS185_5.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3479939594099813</v>
+        <v>0.02758320215906748</v>
       </c>
       <c r="C7" t="n">
-        <v>2.220324060866619e-14</v>
+        <v>0.524318359160649</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6520060405899964</v>
+        <v>0.4480984386802836</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6520060405899964</v>
+        <v>0.524318359160649</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>s__CAG-177 sp003538135</t>
+          <t>s__CAG-177 sp003514385</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS185_13.fasta</t>
+          <t>label_UMGS185_6.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5185183999089611</v>
+        <v>0.001114153103303577</v>
       </c>
       <c r="C8" t="n">
-        <v>3.093311124468663e-10</v>
+        <v>0.4986890265127636</v>
       </c>
       <c r="D8" t="n">
-        <v>0.481481599781708</v>
+        <v>0.500196820383933</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5185183999089611</v>
+        <v>0.500196820383933</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>s__CAG-177 sp000431775</t>
+          <t>s__CAG-177 sp003538135</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS185_5.fasta</t>
+          <t>label_UMGS185_9.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02758320215906748</v>
+        <v>0.001720671134118114</v>
       </c>
       <c r="C9" t="n">
-        <v>0.524318359160649</v>
+        <v>0.4486414945933901</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4480984386802836</v>
+        <v>0.5496378342724918</v>
       </c>
       <c r="E9" t="n">
-        <v>0.524318359160649</v>
+        <v>0.5496378342724918</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>s__CAG-177 sp003514385</t>
+          <t>s__CAG-177 sp003538135</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS185_6.fasta</t>
+          <t>label_UMGS185_0.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.001114153103303577</v>
+        <v>0.1397664841674233</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4986890265127636</v>
+        <v>0.4945228583113287</v>
       </c>
       <c r="D10" t="n">
-        <v>0.500196820383933</v>
+        <v>0.3657106575212479</v>
       </c>
       <c r="E10" t="n">
-        <v>0.500196820383933</v>
+        <v>0.4945228583113287</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>s__CAG-177 sp003538135</t>
+          <t>s__CAG-177 sp003514385</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS185_9.fasta</t>
+          <t>label_UMGS185_1.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.001720671134118114</v>
+        <v>0.1383224267005937</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4486414945933901</v>
+        <v>0.4975555554502101</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5496378342724918</v>
+        <v>0.3641220178491962</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5496378342724918</v>
+        <v>0.4975555554502101</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>s__CAG-177 sp003538135</t>
+          <t>s__CAG-177 sp003514385</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS185_0.fasta</t>
+          <t>label_UMGS185_3.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1397664841674233</v>
+        <v>0.1239562759893716</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4945228583113287</v>
+        <v>0.4934881369106864</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3657106575212479</v>
+        <v>0.3825555870999419</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4945228583113287</v>
+        <v>0.4934881369106864</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1533,44 +1461,44 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS185_1.fasta</t>
+          <t>label_UMGS185_7.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1383224267005937</v>
+        <v>0.05703572499474432</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4975555554502101</v>
+        <v>0.4224541062198813</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3641220178491962</v>
+        <v>0.5205101687853744</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4975555554502101</v>
+        <v>0.5205101687853744</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>s__CAG-177 sp003514385</t>
+          <t>s__CAG-177 sp003538135</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS185_3.fasta</t>
+          <t>label_UMGS185_11.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1239562759893716</v>
+        <v>0.1239467727076191</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4934881369106864</v>
+        <v>0.5093735394150827</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3825555870999419</v>
+        <v>0.3666796878772982</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4934881369106864</v>
+        <v>0.5093735394150827</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1581,70 +1509,22 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS185_7.fasta</t>
+          <t>label_UMGS185_4.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.05703572499474432</v>
+        <v>0.1897175207954808</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4224541062198813</v>
+        <v>0.5754567563614175</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5205101687853744</v>
+        <v>0.2348257228431017</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5205101687853744</v>
+        <v>0.5754567563614175</v>
       </c>
       <c r="F15" t="inlineStr">
-        <is>
-          <t>s__CAG-177 sp003538135</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS185_11.fasta</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.1239467727076191</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.5093735394150827</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.3666796878772982</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.5093735394150827</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>s__CAG-177 sp003514385</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS185_4.fasta</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0.1897175207954808</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.5754567563614175</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.2348257228431017</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.5754567563614175</v>
-      </c>
-      <c r="F17" t="inlineStr">
         <is>
           <t>s__CAG-177 sp003514385</t>
         </is>
@@ -1661,7 +1541,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1800,20 +1680,20 @@
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS186_11.fasta</t>
+          <t>label_UMGS186_10.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1225998023776573</v>
+        <v>0.3197866097467303</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3691108780480316</v>
+        <v>4.778759967015016e-11</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5082893195743111</v>
+        <v>0.6802133902054821</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5082893195743111</v>
+        <v>0.6802133902054821</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -1824,20 +1704,20 @@
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS186_12.fasta</t>
+          <t>label_UMGS186_16.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1395057317229135</v>
+        <v>0.34836039441667</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3567369769989214</v>
+        <v>3.245755685924379e-12</v>
       </c>
       <c r="D7" t="n">
-        <v>0.503757291278165</v>
+        <v>0.6516396055800843</v>
       </c>
       <c r="E7" t="n">
-        <v>0.503757291278165</v>
+        <v>0.6516396055800843</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -1848,20 +1728,20 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS186_18.fasta</t>
+          <t>label_UMGS186_2.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2732038111633845</v>
+        <v>0.2348763019174657</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1506073954202446</v>
+        <v>0.2256065790729248</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5761887934163709</v>
+        <v>0.5395171190096097</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5761887934163709</v>
+        <v>0.5395171190096097</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -1872,20 +1752,20 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS186_3.fasta</t>
+          <t>label_UMGS186_5.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1001776458809327</v>
+        <v>0.2170232177094779</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3646981720713871</v>
+        <v>0.2132723373748212</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5351241820476802</v>
+        <v>0.569704444915701</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5351241820476802</v>
+        <v>0.569704444915701</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -1896,20 +1776,20 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS186_4.fasta</t>
+          <t>label_UMGS186_17.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0707593760139696</v>
+        <v>0.02561474590140947</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3581189401365893</v>
+        <v>0.1998804407202411</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5711216838494412</v>
+        <v>0.7745048133783495</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5711216838494412</v>
+        <v>0.7745048133783495</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -1920,20 +1800,20 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS186_6.fasta</t>
+          <t>label_UMGS186_9.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.09017024148178715</v>
+        <v>0.0004495504895084421</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3645103542981922</v>
+        <v>0.3289035835656103</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5453194042200207</v>
+        <v>0.6706468659448813</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5453194042200207</v>
+        <v>0.6706468659448813</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -1944,20 +1824,20 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS186_10.fasta</t>
+          <t>label_UMGS186_1.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3197866097467303</v>
+        <v>0.01309304912499412</v>
       </c>
       <c r="C12" t="n">
-        <v>4.778759967015016e-11</v>
+        <v>0.1704451576069816</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6802133902054821</v>
+        <v>0.8164617932680243</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6802133902054821</v>
+        <v>0.8164617932680243</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1968,20 +1848,20 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS186_16.fasta</t>
+          <t>label_UMGS186_14.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.34836039441667</v>
+        <v>0.07431964999033097</v>
       </c>
       <c r="C13" t="n">
-        <v>3.245755685924379e-12</v>
+        <v>0.2737845775999589</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6516396055800843</v>
+        <v>0.6518957724097102</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6516396055800843</v>
+        <v>0.6518957724097102</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1992,20 +1872,20 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS186_2.fasta</t>
+          <t>label_UMGS186_15.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2348763019174657</v>
+        <v>0.1031852197222625</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2256065790729248</v>
+        <v>0.3945213167201219</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5395171190096097</v>
+        <v>0.5022934635576157</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5395171190096097</v>
+        <v>0.5022934635576157</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -2016,20 +1896,20 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS186_5.fasta</t>
+          <t>label_UMGS186_0.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2170232177094779</v>
+        <v>0.0905537718273669</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2132723373748212</v>
+        <v>0.2992126625451104</v>
       </c>
       <c r="D15" t="n">
-        <v>0.569704444915701</v>
+        <v>0.6102335656275228</v>
       </c>
       <c r="E15" t="n">
-        <v>0.569704444915701</v>
+        <v>0.6102335656275228</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -2040,20 +1920,20 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS186_17.fasta</t>
+          <t>label_UMGS186_13.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02561474590140947</v>
+        <v>0.1097865421451127</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1998804407202411</v>
+        <v>0.3100573430880877</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7745048133783495</v>
+        <v>0.5801561147667995</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7745048133783495</v>
+        <v>0.5801561147667995</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -2064,20 +1944,20 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS186_9.fasta</t>
+          <t>label_UMGS186_7.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0004495504895084421</v>
+        <v>0.1064291805716535</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3289035835656103</v>
+        <v>0.2179610338467481</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6706468659448813</v>
+        <v>0.6756097855815985</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6706468659448813</v>
+        <v>0.6756097855815985</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -2088,166 +1968,22 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS186_1.fasta</t>
+          <t>label_UMGS186_8.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01309304912499412</v>
+        <v>0.05339971778780134</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1704451576069816</v>
+        <v>0.2586939934157206</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8164617932680243</v>
+        <v>0.6879062887964781</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8164617932680243</v>
+        <v>0.6879062887964781</v>
       </c>
       <c r="F18" t="inlineStr">
-        <is>
-          <t>s__CAG-177 sp003538135</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS186_14.fasta</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.07431964999033097</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.2737845775999589</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.6518957724097102</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.6518957724097102</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>s__CAG-177 sp003538135</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS186_15.fasta</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.1031852197222625</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.3945213167201219</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.5022934635576157</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.5022934635576157</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>s__CAG-177 sp003538135</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS186_0.fasta</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.0905537718273669</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.2992126625451104</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.6102335656275228</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.6102335656275228</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>s__CAG-177 sp003538135</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS186_13.fasta</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.1097865421451127</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.3100573430880877</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.5801561147667995</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.5801561147667995</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>s__CAG-177 sp003538135</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS186_7.fasta</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.1064291805716535</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.2179610338467481</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.6756097855815985</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.6756097855815985</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>s__CAG-177 sp003538135</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS186_8.fasta</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0.05339971778780134</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.2586939934157206</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.6879062887964781</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.6879062887964781</v>
-      </c>
-      <c r="F24" t="inlineStr">
         <is>
           <t>s__CAG-177 sp003538135</t>
         </is>
